--- a/Angling Graph.xlsx
+++ b/Angling Graph.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theol\Documents\7842F-Local-Vex-Code\7842F-Competition-Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FC85D1-C20A-4551-9735-D8E1DCA3D74B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B86C11-9127-42A9-8F6A-A4A5686A18C2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B7EF33C4-B3D8-4659-ADC8-F72DCDB8CA90}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{B7EF33C4-B3D8-4659-ADC8-F72DCDB8CA90}"/>
   </bookViews>
   <sheets>
     <sheet name="Top Flag" sheetId="1" r:id="rId1"/>
@@ -735,15 +735,6 @@
                 <c:pt idx="8">
                   <c:v>10.856763000000001</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.209020000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13.39729</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14.11154</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -772,6 +763,52 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:backward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:yVal>
             <c:numRef>
               <c:f>'Middle Flag'!$C$2:$C$19</c:f>
@@ -804,15 +841,6 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>10.7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15.2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>19.7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>23.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2478,7 +2506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817BAA7B-97E2-4A5B-97B3-3A62BADDA020}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -2725,10 +2753,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836EFEA5-DF78-47D0-A4ED-33B3480FF674}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2855,42 +2883,6 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>-1.20902</v>
-      </c>
-      <c r="B11">
-        <f>SUM(11-A11)</f>
-        <v>12.209020000000001</v>
-      </c>
-      <c r="C11">
-        <v>15.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>-2.3972899999999999</v>
-      </c>
-      <c r="B12">
-        <f>SUM(11-A12)</f>
-        <v>13.39729</v>
-      </c>
-      <c r="C12">
-        <v>19.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>-3.1115400000000002</v>
-      </c>
-      <c r="B13">
-        <f>SUM(11-A13)</f>
-        <v>14.11154</v>
-      </c>
-      <c r="C13">
-        <v>23.3</v>
-      </c>
-    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C13">
     <sortCondition ref="B2"/>
